--- a/biology/Médecine/Secourisme/Secourisme.xlsx
+++ b/biology/Médecine/Secourisme/Secourisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le secourisme, prompt secours, secours à victimes (SAV) ou secours d'urgence aux personnes (SUAP) est, en France, les premiers gestes d'urgence pratiqués par des personnes ayant des connaissances nécessaires, des secouristes bénévoles ou des sapeurs-pompiers ; il peut s'agir de secours à personne avec ou sans matériel, en équipe organisée ou seul. Le secourisme consiste donc au maintien ou à l'amélioration des fonctions vitales d'un individu, d'une victime.
 </t>
@@ -511,10 +523,12 @@
           <t>Définition administrative</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prompt secours était défini[Quand ?] en France par le texte suivant :
-« le prompt secours se caractérise par une action de secouristes agissant en équipe et visant à prendre en charge sans délai des détresses vitales ou à pratiquer sans délai des gestes secourisme. Il est assuré par des personnels formés et équipés. Son intérêt réside dans son caractère réflexe, il ne doit en aucun cas conduire à des actions relevant de la compétence des smur, des médecins généralistes, d'infirmiers et/ ou des ambulanciers privés voire du simple conseil. » (circulaire no 151 [1] du 29 mars 2004 relative au rôle des SAMU, des SDIS et des ambulanciers dans l’aide médicale urgente, ministère de la Santé et ministère de l'Intérieur français).
+« le prompt secours se caractérise par une action de secouristes agissant en équipe et visant à prendre en charge sans délai des détresses vitales ou à pratiquer sans délai des gestes secourisme. Il est assuré par des personnels formés et équipés. Son intérêt réside dans son caractère réflexe, il ne doit en aucun cas conduire à des actions relevant de la compétence des smur, des médecins généralistes, d'infirmiers et/ ou des ambulanciers privés voire du simple conseil. » (circulaire no 151  du 29 mars 2004 relative au rôle des SAMU, des SDIS et des ambulanciers dans l’aide médicale urgente, ministère de la Santé et ministère de l'Intérieur français).
 La notion « d'engagement sans délai » ne signifie pas « envoi systématique de moyens ». L'envoi d'équipe de prompts secours se fait par une régulation médicale qui se charge d'évaluer la gravité de la situation et donc de déterminer les moyens envoyés.
 Auprès du grand public (et peut-être dans d'autres pays francophones ?), le terme « secourisme » désigne les premiers secours, c'est-à-dire les savoirs et techniques nécessaires pour porter secours aux personnes en situation de détresse physique, ou de détresse mentale (nous parlons alors de secours psychologique). Il existe également dans plusieurs pays des secouristes paramédicaux (techniciens de l'urgence, paramedics).
 Le présent article ne se réfère qu'à la première acception, les secours à personne organisés.
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,7 +588,9 @@
           <t>Techniques et matériel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les techniques utilisées par les secouristes intervenant en équipe (minimum deux équipiers) et avec du matériel de secours ne font pas intervenir de médicament ni de geste invasif (pas de piqûre ni d'introduction de dispositif dans la bouche sauf exception), ces gestes relevant des secours médicaux ou paramédicaux.
 Protection
@@ -615,8 +633,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>France
-La Fédération nationale des sapeurs-pompiers de France (FNSPF)
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Fédération nationale des sapeurs-pompiers de France (FNSPF)
 L'Association nationale des premiers secours (ANPS)
 La Fédération française de sauvetage et de secourisme (FFSS)
 Le Centre français de secourisme et de protection civile (CFS)
@@ -627,18 +650,120 @@
 L'Unité mobile de premiers secours (UMPS)
 L'Union nationale des associations de secouristes et sauveteurs des groupes La Poste et Orange (UNASS)
 La Société nationale de sauvetage en mer (SNSM)
-La Fédération française des secouristes et formateurs policiers (FFSFP)
-Suisse
-Alliance suisse des samaritains (ASS)
+La Fédération française des secouristes et formateurs policiers (FFSFP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Secourisme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Secourisme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Alliance suisse des samaritains (ASS)
 Office de certification ResQ
 Association Genevoise des Sections de Samaritains (AGSS)
-SwissRescue
-Belgique
-ASL School
+SwissRescue</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Secourisme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Secourisme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ASL School
 Secourisme et sauvetage SeSa
-Croix-Rouge de Belgique
-Canada
-Société de sauvetage canadienne
+Croix-Rouge de Belgique</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Secourisme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Secourisme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Société de sauvetage canadienne
 Croix-Rouge canadienne</t>
         </is>
       </c>
